--- a/excel/build.xlsx
+++ b/excel/build.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\coder\NodeProject\xlsx_2_json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\growup\coder\NodeProj\xlsx_2_json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>level</t>
   </si>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>产出金币</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,300 +422,306 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>80</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>100</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>110</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>120</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>130</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>140</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>150</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>160</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>170</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>180</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>290</v>
+      </c>
+      <c r="C28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>300</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>57</v>
       </c>
     </row>

--- a/excel/build.xlsx
+++ b/excel/build.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\growup\coder\NodeProj\xlsx_2_json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\growup\coder\LayaProj\cards\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>level</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function | f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f.a + f.b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +418,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,7 +436,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -445,8 +463,8 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
     </row>

--- a/excel/build.xlsx
+++ b/excel/build.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\growup\coder\LayaProj\cards\build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\growup\coder\NodeProj\xlsx_2_json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>level</t>
   </si>
   <si>
-    <t>diamon</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
@@ -48,6 +45,10 @@
   </si>
   <si>
     <t>function | f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,7 +419,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,32 +429,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
